--- a/data/data_final/data_master.xlsx
+++ b/data/data_final/data_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="114">
   <si>
     <t>Year</t>
   </si>
@@ -433,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J2106" totalsRowShown="0">
-  <autoFilter ref="A1:J2106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J2110" totalsRowShown="0">
+  <autoFilter ref="A1:J2110"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Year" dataDxfId="0"/>
     <tableColumn id="2" name="Municipality" dataDxfId="1"/>
@@ -736,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2106"/>
+  <dimension ref="A1:J2110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18437,7 +18437,7 @@
         <v>0.5271900383141762</v>
       </c>
       <c r="G553" s="4">
-        <v>51.64713180076628</v>
+        <v>51.98573333333333</v>
       </c>
       <c r="H553" s="3" t="b">
         <v>1</v>
@@ -18454,22 +18454,22 @@
         <v>2005</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C554" s="4">
-        <v>1.1252</v>
+        <v>1.341</v>
       </c>
       <c r="D554" s="4">
-        <v>0.091</v>
+        <v>0.09100000000000001</v>
       </c>
       <c r="E554" s="4">
-        <v>0.5839900383141762</v>
+        <v>0.8130480656506448</v>
       </c>
       <c r="F554" s="4">
-        <v>0.5271900383141762</v>
+        <v>-0.688926143024619</v>
       </c>
       <c r="G554" s="4">
-        <v>12.24295977011494</v>
+        <v>36.42482415005862</v>
       </c>
       <c r="H554" s="3" t="b">
         <v>1</v>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="J554" s="2">
-        <v>2610</v>
+        <v>853</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -65302,22 +65302,22 @@
         <v>2020</v>
       </c>
       <c r="B2018" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2018" s="4">
-        <v>1.4231</v>
+        <v>1.775</v>
       </c>
       <c r="D2018" s="4">
-        <v>0.387005696159356</v>
+        <v>0.3607543918634951</v>
       </c>
       <c r="E2018" s="4">
-        <v>1.734192987243332</v>
+        <v>1.818663276456249</v>
       </c>
       <c r="F2018" s="4">
-        <v>0.2761981376628692</v>
+        <v>0.5694793645456836</v>
       </c>
       <c r="G2018" s="4">
-        <v>129.6431652397844</v>
+        <v>90.7007474993696</v>
       </c>
       <c r="H2018" s="3" t="b">
         <v>0</v>
@@ -65326,7 +65326,7 @@
         <v>0</v>
       </c>
       <c r="J2018" s="2">
-        <v>58636</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="2019" spans="1:10">
@@ -65334,31 +65334,31 @@
         <v>2020</v>
       </c>
       <c r="B2019" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2019" s="4">
-        <v>1.7399</v>
+        <v>1.7763</v>
       </c>
       <c r="D2019" s="4">
-        <v>0.3429821520214404</v>
+        <v>0.3826215313090222</v>
       </c>
       <c r="E2019" s="4">
-        <v>1.709778012202771</v>
+        <v>1.774466947551939</v>
       </c>
       <c r="F2019" s="4">
-        <v>0.5234674117579972</v>
+        <v>0.6045397355804153</v>
       </c>
       <c r="G2019" s="4">
-        <v>87.8954382163426</v>
+        <v>87.40352317303503</v>
       </c>
       <c r="H2019" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I2019" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2019" s="2">
-        <v>17537</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="2020" spans="1:10">
@@ -65366,22 +65366,22 @@
         <v>2020</v>
       </c>
       <c r="B2020" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2020" s="4">
-        <v>1.6497</v>
+        <v>1.6295</v>
       </c>
       <c r="D2020" s="4">
-        <v>0.31535425447565</v>
+        <v>0.2344724235739048</v>
       </c>
       <c r="E2020" s="4">
-        <v>1.959995562603458</v>
+        <v>2.087807004412228</v>
       </c>
       <c r="F2020" s="4">
-        <v>0.276090403260582</v>
+        <v>0.2216123148439962</v>
       </c>
       <c r="G2020" s="4">
-        <v>121.1892716549124</v>
+        <v>128.9160180822566</v>
       </c>
       <c r="H2020" s="3" t="b">
         <v>0</v>
@@ -65390,7 +65390,7 @@
         <v>1</v>
       </c>
       <c r="J2020" s="2">
-        <v>71889</v>
+        <v>25384</v>
       </c>
     </row>
     <row r="2021" spans="1:10">
@@ -65398,22 +65398,22 @@
         <v>2020</v>
       </c>
       <c r="B2021" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2021" s="4">
-        <v>1.785</v>
+        <v>1.635</v>
       </c>
       <c r="D2021" s="4">
-        <v>0.386172889382168</v>
+        <v>0.33544794933655</v>
       </c>
       <c r="E2021" s="4">
-        <v>2.080840414354421</v>
+        <v>1.806330398069964</v>
       </c>
       <c r="F2021" s="4">
-        <v>0.6047421383647799</v>
+        <v>0.7111211097708079</v>
       </c>
       <c r="G2021" s="4">
-        <v>567.6546026785054</v>
+        <v>87.5019722557298</v>
       </c>
       <c r="H2021" s="3" t="b">
         <v>0</v>
@@ -65422,7 +65422,7 @@
         <v>0</v>
       </c>
       <c r="J2021" s="2">
-        <v>67575</v>
+        <v>16580</v>
       </c>
     </row>
     <row r="2022" spans="1:10">
@@ -65430,22 +65430,22 @@
         <v>2020</v>
       </c>
       <c r="B2022" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2022" s="4">
-        <v>1.5593</v>
+        <v>1.4231</v>
       </c>
       <c r="D2022" s="4">
-        <v>0.2707502332089552</v>
+        <v>0.387005696159356</v>
       </c>
       <c r="E2022" s="4">
-        <v>1.052943796641791</v>
+        <v>1.734192987243332</v>
       </c>
       <c r="F2022" s="4">
-        <v>0.2745597014925373</v>
+        <v>0.2761981376628692</v>
       </c>
       <c r="G2022" s="4">
-        <v>67.28273087686568</v>
+        <v>129.6431652397844</v>
       </c>
       <c r="H2022" s="3" t="b">
         <v>0</v>
@@ -65454,7 +65454,7 @@
         <v>0</v>
       </c>
       <c r="J2022" s="2">
-        <v>4288</v>
+        <v>58636</v>
       </c>
     </row>
     <row r="2023" spans="1:10">
@@ -65462,31 +65462,31 @@
         <v>2020</v>
       </c>
       <c r="B2023" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C2023" s="4">
-        <v>1.3255</v>
+        <v>1.7399</v>
       </c>
       <c r="D2023" s="4">
-        <v>0.183565861922914</v>
+        <v>0.3429821520214404</v>
       </c>
       <c r="E2023" s="4">
-        <v>1.552576874205845</v>
+        <v>1.709778012202771</v>
       </c>
       <c r="F2023" s="4">
-        <v>0.484193562049979</v>
+        <v>0.5234674117579972</v>
       </c>
       <c r="G2023" s="4">
-        <v>94.45108005082592</v>
+        <v>87.8954382163426</v>
       </c>
       <c r="H2023" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I2023" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2023" s="2">
-        <v>2361</v>
+        <v>17537</v>
       </c>
     </row>
     <row r="2024" spans="1:10">
@@ -65494,31 +65494,31 @@
         <v>2020</v>
       </c>
       <c r="B2024" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2024" s="4">
-        <v>1.5017</v>
+        <v>1.6497</v>
       </c>
       <c r="D2024" s="4">
-        <v>0.2200350753295669</v>
+        <v>0.31535425447565</v>
       </c>
       <c r="E2024" s="4">
-        <v>1.53467302259887</v>
+        <v>1.959995562603458</v>
       </c>
       <c r="F2024" s="4">
-        <v>0.3635228342749529</v>
+        <v>0.276090403260582</v>
       </c>
       <c r="G2024" s="4">
-        <v>92.64068973634652</v>
+        <v>121.1892716549124</v>
       </c>
       <c r="H2024" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2024" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2024" s="2">
-        <v>4248</v>
+        <v>71889</v>
       </c>
     </row>
     <row r="2025" spans="1:10">
@@ -65526,31 +65526,31 @@
         <v>2020</v>
       </c>
       <c r="B2025" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2025" s="4">
-        <v>1.7468</v>
+        <v>1.785</v>
       </c>
       <c r="D2025" s="4">
-        <v>0.2085710172744722</v>
+        <v>0.386172889382168</v>
       </c>
       <c r="E2025" s="4">
-        <v>1.660285668586053</v>
+        <v>2.080840414354421</v>
       </c>
       <c r="F2025" s="4">
-        <v>0.5881260396673065</v>
+        <v>0.6047421383647799</v>
       </c>
       <c r="G2025" s="4">
-        <v>73.31861804222649</v>
+        <v>567.6546026785054</v>
       </c>
       <c r="H2025" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2025" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2025" s="2">
-        <v>3126</v>
+        <v>67575</v>
       </c>
     </row>
     <row r="2026" spans="1:10">
@@ -65558,31 +65558,31 @@
         <v>2020</v>
       </c>
       <c r="B2026" s="3" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C2026" s="4">
-        <v>1.2899</v>
+        <v>1.5593</v>
       </c>
       <c r="D2026" s="4">
-        <v>0.3077861596009975</v>
+        <v>0.2707502332089552</v>
       </c>
       <c r="E2026" s="4">
-        <v>1.895745012468828</v>
+        <v>1.052943796641791</v>
       </c>
       <c r="F2026" s="4">
-        <v>0.4058952618453865</v>
+        <v>0.2745597014925373</v>
       </c>
       <c r="G2026" s="4">
-        <v>139.3624064837905</v>
+        <v>67.28273087686568</v>
       </c>
       <c r="H2026" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2026" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2026" s="2">
-        <v>1604</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="2027" spans="1:10">
@@ -65590,31 +65590,31 @@
         <v>2020</v>
       </c>
       <c r="B2027" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C2027" s="4">
-        <v>1.37</v>
+        <v>1.3255</v>
       </c>
       <c r="D2027" s="4">
-        <v>0.144389202256245</v>
+        <v>0.183565861922914</v>
       </c>
       <c r="E2027" s="4">
-        <v>1.135117244157937</v>
+        <v>1.552576874205845</v>
       </c>
       <c r="F2027" s="4">
-        <v>0.2237820306204674</v>
+        <v>0.484193562049979</v>
       </c>
       <c r="G2027" s="4">
-        <v>77.05889403706689</v>
+        <v>94.45108005082592</v>
       </c>
       <c r="H2027" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2027" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2027" s="2">
-        <v>4964</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="2028" spans="1:10">
@@ -65622,31 +65622,31 @@
         <v>2020</v>
       </c>
       <c r="B2028" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2028" s="4">
-        <v>1.499</v>
+        <v>1.5017</v>
       </c>
       <c r="D2028" s="4">
-        <v>0.3819596319939917</v>
+        <v>0.2200350753295669</v>
       </c>
       <c r="E2028" s="4">
-        <v>1.688625797972212</v>
+        <v>1.53467302259887</v>
       </c>
       <c r="F2028" s="4">
-        <v>0.5091930153961697</v>
+        <v>0.3635228342749529</v>
       </c>
       <c r="G2028" s="4">
-        <v>104.1656778069846</v>
+        <v>92.64068973634652</v>
       </c>
       <c r="H2028" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2028" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2028" s="2">
-        <v>5326</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2029" spans="1:10">
@@ -65654,31 +65654,31 @@
         <v>2020</v>
       </c>
       <c r="B2029" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C2029" s="4">
-        <v>1.297</v>
+        <v>1.7468</v>
       </c>
       <c r="D2029" s="4">
-        <v>0.1783923991606435</v>
+        <v>0.2085710172744722</v>
       </c>
       <c r="E2029" s="4">
-        <v>1.261920960596876</v>
+        <v>1.660285668586053</v>
       </c>
       <c r="F2029" s="4">
-        <v>0.3215768244346</v>
+        <v>0.5881260396673065</v>
       </c>
       <c r="G2029" s="4">
-        <v>86.25572394497551</v>
+        <v>73.31861804222649</v>
       </c>
       <c r="H2029" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2029" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2029" s="2">
-        <v>4289</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="2030" spans="1:10">
@@ -65686,22 +65686,22 @@
         <v>2020</v>
       </c>
       <c r="B2030" s="3" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C2030" s="4">
-        <v>1.5255</v>
+        <v>1.2899</v>
       </c>
       <c r="D2030" s="4">
-        <v>0.2379498432601881</v>
+        <v>0.3077861596009975</v>
       </c>
       <c r="E2030" s="4">
-        <v>1.601799373040752</v>
+        <v>1.895745012468828</v>
       </c>
       <c r="F2030" s="4">
-        <v>0.4776969696969699</v>
+        <v>0.4058952618453865</v>
       </c>
       <c r="G2030" s="4">
-        <v>89.28568443051202</v>
+        <v>139.3624064837905</v>
       </c>
       <c r="H2030" s="3" t="b">
         <v>1</v>
@@ -65710,7 +65710,7 @@
         <v>0</v>
       </c>
       <c r="J2030" s="2">
-        <v>957</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="2031" spans="1:10">
@@ -65718,22 +65718,22 @@
         <v>2020</v>
       </c>
       <c r="B2031" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C2031" s="4">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="D2031" s="4">
-        <v>0.1945073929961089</v>
+        <v>0.144389202256245</v>
       </c>
       <c r="E2031" s="4">
-        <v>1.380566536964981</v>
+        <v>1.135117244157937</v>
       </c>
       <c r="F2031" s="4">
-        <v>0.384924513618677</v>
+        <v>0.2237820306204674</v>
       </c>
       <c r="G2031" s="4">
-        <v>76.78140077821013</v>
+        <v>77.05889403706689</v>
       </c>
       <c r="H2031" s="3" t="b">
         <v>1</v>
@@ -65742,7 +65742,7 @@
         <v>0</v>
       </c>
       <c r="J2031" s="2">
-        <v>1285</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2032" spans="1:10">
@@ -65750,31 +65750,31 @@
         <v>2020</v>
       </c>
       <c r="B2032" s="3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C2032" s="4">
-        <v>1.4753</v>
+        <v>1.499</v>
       </c>
       <c r="D2032" s="4">
-        <v>0.153624867162593</v>
+        <v>0.3819596319939917</v>
       </c>
       <c r="E2032" s="4">
-        <v>1.553167906482466</v>
+        <v>1.688625797972212</v>
       </c>
       <c r="F2032" s="4">
-        <v>0.2440116896918172</v>
+        <v>0.5091930153961697</v>
       </c>
       <c r="G2032" s="4">
-        <v>99.14930924548352</v>
+        <v>104.1656778069846</v>
       </c>
       <c r="H2032" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2032" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2032" s="2">
-        <v>941</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="2033" spans="1:10">
@@ -65782,22 +65782,22 @@
         <v>2020</v>
       </c>
       <c r="B2033" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C2033" s="4">
-        <v>1.222</v>
+        <v>1.297</v>
       </c>
       <c r="D2033" s="4">
-        <v>0.2192600021684918</v>
+        <v>0.1783923991606435</v>
       </c>
       <c r="E2033" s="4">
-        <v>1.818588420253713</v>
+        <v>1.261920960596876</v>
       </c>
       <c r="F2033" s="4">
-        <v>0.4195650005421231</v>
+        <v>0.3215768244346</v>
       </c>
       <c r="G2033" s="4">
-        <v>132.4335953594275</v>
+        <v>86.25572394497551</v>
       </c>
       <c r="H2033" s="3" t="b">
         <v>0</v>
@@ -65806,7 +65806,7 @@
         <v>1</v>
       </c>
       <c r="J2033" s="2">
-        <v>9223</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="2034" spans="1:10">
@@ -65814,31 +65814,31 @@
         <v>2020</v>
       </c>
       <c r="B2034" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C2034" s="4">
-        <v>1.3428</v>
+        <v>1.5255</v>
       </c>
       <c r="D2034" s="4">
-        <v>0.2197288024116196</v>
+        <v>0.2379498432601881</v>
       </c>
       <c r="E2034" s="4">
-        <v>1.193518333790079</v>
+        <v>1.601799373040752</v>
       </c>
       <c r="F2034" s="4">
-        <v>0.08791838859961633</v>
+        <v>0.4776969696969699</v>
       </c>
       <c r="G2034" s="4">
-        <v>98.69913949027131</v>
+        <v>89.28568443051202</v>
       </c>
       <c r="H2034" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2034" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2034" s="2">
-        <v>18245</v>
+        <v>957</v>
       </c>
     </row>
     <row r="2035" spans="1:10">
@@ -65846,22 +65846,22 @@
         <v>2020</v>
       </c>
       <c r="B2035" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C2035" s="4">
-        <v>1.4324</v>
+        <v>1.55</v>
       </c>
       <c r="D2035" s="4">
-        <v>0.2346935229067931</v>
+        <v>0.1945073929961089</v>
       </c>
       <c r="E2035" s="4">
-        <v>1.907458135860979</v>
+        <v>1.380566536964981</v>
       </c>
       <c r="F2035" s="4">
-        <v>0.8681429699842022</v>
+        <v>0.384924513618677</v>
       </c>
       <c r="G2035" s="4">
-        <v>88.94356240126382</v>
+        <v>76.78140077821013</v>
       </c>
       <c r="H2035" s="3" t="b">
         <v>1</v>
@@ -65870,7 +65870,7 @@
         <v>0</v>
       </c>
       <c r="J2035" s="2">
-        <v>1266</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="2036" spans="1:10">
@@ -65878,31 +65878,31 @@
         <v>2020</v>
       </c>
       <c r="B2036" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C2036" s="4">
-        <v>1.5926</v>
+        <v>1.4753</v>
       </c>
       <c r="D2036" s="4">
-        <v>0.1883171302181319</v>
+        <v>0.153624867162593</v>
       </c>
       <c r="E2036" s="4">
-        <v>1.339115930238471</v>
+        <v>1.553167906482466</v>
       </c>
       <c r="F2036" s="4">
-        <v>0.2625892611989628</v>
+        <v>0.2440116896918172</v>
       </c>
       <c r="G2036" s="4">
-        <v>79.41917425128388</v>
+        <v>99.14930924548352</v>
       </c>
       <c r="H2036" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2036" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2036" s="2">
-        <v>19667</v>
+        <v>941</v>
       </c>
     </row>
     <row r="2037" spans="1:10">
@@ -65910,31 +65910,31 @@
         <v>2020</v>
       </c>
       <c r="B2037" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C2037" s="4">
-        <v>1.24</v>
+        <v>1.222</v>
       </c>
       <c r="D2037" s="4">
-        <v>0.2216695256883095</v>
+        <v>0.2192600021684918</v>
       </c>
       <c r="E2037" s="4">
-        <v>1.350077622437602</v>
+        <v>1.818588420253713</v>
       </c>
       <c r="F2037" s="4">
-        <v>0.1571778025559654</v>
+        <v>0.4195650005421231</v>
       </c>
       <c r="G2037" s="4">
-        <v>114.0781756582897</v>
+        <v>132.4335953594275</v>
       </c>
       <c r="H2037" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I2037" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2037" s="2">
-        <v>11659</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="2038" spans="1:10">
@@ -65942,31 +65942,31 @@
         <v>2020</v>
       </c>
       <c r="B2038" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C2038" s="4">
-        <v>1.56</v>
+        <v>1.3428</v>
       </c>
       <c r="D2038" s="4">
-        <v>0.3298876383417745</v>
+        <v>0.2197288024116196</v>
       </c>
       <c r="E2038" s="4">
-        <v>1.805843931720128</v>
+        <v>1.193518333790079</v>
       </c>
       <c r="F2038" s="4">
-        <v>0.2119041455636841</v>
+        <v>0.08791838859961633</v>
       </c>
       <c r="G2038" s="4">
-        <v>123.3222659913712</v>
+        <v>98.69913949027131</v>
       </c>
       <c r="H2038" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I2038" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2038" s="2">
-        <v>5331</v>
+        <v>18245</v>
       </c>
     </row>
     <row r="2039" spans="1:10">
@@ -65974,31 +65974,31 @@
         <v>2020</v>
       </c>
       <c r="B2039" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2039" s="4">
-        <v>1.26</v>
+        <v>1.4324</v>
       </c>
       <c r="D2039" s="4">
-        <v>0.2542413213885778</v>
+        <v>0.2346935229067931</v>
       </c>
       <c r="E2039" s="4">
-        <v>2.62910582306831</v>
+        <v>1.907458135860979</v>
       </c>
       <c r="F2039" s="4">
-        <v>0.5625246360582307</v>
+        <v>0.8681429699842022</v>
       </c>
       <c r="G2039" s="4">
-        <v>184.1922732362822</v>
+        <v>88.94356240126382</v>
       </c>
       <c r="H2039" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2039" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2039" s="2">
-        <v>1786</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2040" spans="1:10">
@@ -66006,31 +66006,31 @@
         <v>2020</v>
       </c>
       <c r="B2040" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C2040" s="4">
-        <v>1.4956</v>
+        <v>1.5926</v>
       </c>
       <c r="D2040" s="4">
-        <v>0.2594684579439253</v>
+        <v>0.1883171302181319</v>
       </c>
       <c r="E2040" s="4">
-        <v>1.953049065420561</v>
+        <v>1.339115930238471</v>
       </c>
       <c r="F2040" s="4">
-        <v>0.8084310747663549</v>
+        <v>0.2625892611989628</v>
       </c>
       <c r="G2040" s="4">
-        <v>93.46869158878505</v>
+        <v>79.41917425128388</v>
       </c>
       <c r="H2040" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2040" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2040" s="2">
-        <v>856</v>
+        <v>19667</v>
       </c>
     </row>
     <row r="2041" spans="1:10">
@@ -66038,31 +66038,31 @@
         <v>2020</v>
       </c>
       <c r="B2041" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C2041" s="4">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="D2041" s="4">
-        <v>0.1715902461257976</v>
+        <v>0.2216695256883095</v>
       </c>
       <c r="E2041" s="4">
-        <v>1.280673199635369</v>
+        <v>1.350077622437602</v>
       </c>
       <c r="F2041" s="4">
-        <v>0.5517848678213308</v>
+        <v>0.1571778025559654</v>
       </c>
       <c r="G2041" s="4">
-        <v>62.10195989061076</v>
+        <v>114.0781756582897</v>
       </c>
       <c r="H2041" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2041" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2041" s="2">
-        <v>2194</v>
+        <v>11659</v>
       </c>
     </row>
     <row r="2042" spans="1:10">
@@ -66070,31 +66070,31 @@
         <v>2020</v>
       </c>
       <c r="B2042" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2042" s="4">
-        <v>1.4925</v>
+        <v>1.56</v>
       </c>
       <c r="D2042" s="4">
-        <v>0.2156039915966387</v>
+        <v>0.3298876383417745</v>
       </c>
       <c r="E2042" s="4">
-        <v>1.745715786314526</v>
+        <v>1.805843931720128</v>
       </c>
       <c r="F2042" s="4">
-        <v>0.3728997599039617</v>
+        <v>0.2119041455636841</v>
       </c>
       <c r="G2042" s="4">
-        <v>106.4290366146459</v>
+        <v>123.3222659913712</v>
       </c>
       <c r="H2042" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2042" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2042" s="2">
-        <v>6664</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="2043" spans="1:10">
@@ -66102,31 +66102,31 @@
         <v>2020</v>
       </c>
       <c r="B2043" s="3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C2043" s="4">
-        <v>1.5329</v>
+        <v>1.26</v>
       </c>
       <c r="D2043" s="4">
-        <v>0.2225232558139535</v>
+        <v>0.2542413213885778</v>
       </c>
       <c r="E2043" s="4">
-        <v>1.80023023255814</v>
+        <v>2.62910582306831</v>
       </c>
       <c r="F2043" s="4">
-        <v>0.580627906976744</v>
+        <v>0.5625246360582307</v>
       </c>
       <c r="G2043" s="4">
-        <v>94.07825581395349</v>
+        <v>184.1922732362822</v>
       </c>
       <c r="H2043" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2043" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2043" s="2">
-        <v>2580</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="2044" spans="1:10">
@@ -66134,22 +66134,22 @@
         <v>2020</v>
       </c>
       <c r="B2044" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2044" s="4">
-        <v>1.4</v>
+        <v>1.4956</v>
       </c>
       <c r="D2044" s="4">
-        <v>0.2913651944627554</v>
+        <v>0.2594684579439253</v>
       </c>
       <c r="E2044" s="4">
-        <v>1.268406723796968</v>
+        <v>1.953049065420561</v>
       </c>
       <c r="F2044" s="4">
-        <v>0.2747290705339485</v>
+        <v>0.8084310747663549</v>
       </c>
       <c r="G2044" s="4">
-        <v>91.7887936717205</v>
+        <v>93.46869158878505</v>
       </c>
       <c r="H2044" s="3" t="b">
         <v>1</v>
@@ -66158,7 +66158,7 @@
         <v>0</v>
       </c>
       <c r="J2044" s="2">
-        <v>1517</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2045" spans="1:10">
@@ -66166,22 +66166,22 @@
         <v>2020</v>
       </c>
       <c r="B2045" s="3" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C2045" s="4">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="D2045" s="4">
-        <v>0.2769454133635334</v>
+        <v>0.1715902461257976</v>
       </c>
       <c r="E2045" s="4">
-        <v>1.852187768969422</v>
+        <v>1.280673199635369</v>
       </c>
       <c r="F2045" s="4">
-        <v>0.9054763306908267</v>
+        <v>0.5517848678213308</v>
       </c>
       <c r="G2045" s="4">
-        <v>77.44663646659117</v>
+        <v>62.10195989061076</v>
       </c>
       <c r="H2045" s="3" t="b">
         <v>1</v>
@@ -66190,7 +66190,7 @@
         <v>0</v>
       </c>
       <c r="J2045" s="2">
-        <v>4415</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="2046" spans="1:10">
@@ -66198,22 +66198,22 @@
         <v>2020</v>
       </c>
       <c r="B2046" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2046" s="4">
-        <v>1.2889</v>
+        <v>1.4925</v>
       </c>
       <c r="D2046" s="4">
-        <v>0.2540429705744979</v>
+        <v>0.2156039915966387</v>
       </c>
       <c r="E2046" s="4">
-        <v>1.445927136851938</v>
+        <v>1.745715786314526</v>
       </c>
       <c r="F2046" s="4">
-        <v>0.4345086408220457</v>
+        <v>0.3728997599039617</v>
       </c>
       <c r="G2046" s="4">
-        <v>98.18150397010743</v>
+        <v>106.4290366146459</v>
       </c>
       <c r="H2046" s="3" t="b">
         <v>1</v>
@@ -66222,7 +66222,7 @@
         <v>0</v>
       </c>
       <c r="J2046" s="2">
-        <v>4282</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="2047" spans="1:10">
@@ -66230,31 +66230,31 @@
         <v>2020</v>
       </c>
       <c r="B2047" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2047" s="4">
-        <v>1.4479</v>
+        <v>1.5329</v>
       </c>
       <c r="D2047" s="4">
-        <v>0.4576702371843918</v>
+        <v>0.2225232558139535</v>
       </c>
       <c r="E2047" s="4">
-        <v>1.493552027543994</v>
+        <v>1.80023023255814</v>
       </c>
       <c r="F2047" s="4">
-        <v>0.5219539020657995</v>
+        <v>0.580627906976744</v>
       </c>
       <c r="G2047" s="4">
-        <v>2497.620791889824</v>
+        <v>94.07825581395349</v>
       </c>
       <c r="H2047" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2047" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2047" s="2">
-        <v>5228</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="2048" spans="1:10">
@@ -66262,22 +66262,22 @@
         <v>2020</v>
       </c>
       <c r="B2048" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2048" s="4">
-        <v>1.5475</v>
+        <v>1.4</v>
       </c>
       <c r="D2048" s="4">
-        <v>0.249924882629108</v>
+        <v>0.2913651944627554</v>
       </c>
       <c r="E2048" s="4">
-        <v>2.438863849765258</v>
+        <v>1.268406723796968</v>
       </c>
       <c r="F2048" s="4">
-        <v>0.5086619718309858</v>
+        <v>0.2747290705339485</v>
       </c>
       <c r="G2048" s="4">
-        <v>140.8833333333334</v>
+        <v>91.7887936717205</v>
       </c>
       <c r="H2048" s="3" t="b">
         <v>1</v>
@@ -66286,7 +66286,7 @@
         <v>0</v>
       </c>
       <c r="J2048" s="2">
-        <v>213</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2049" spans="1:10">
@@ -66294,22 +66294,22 @@
         <v>2020</v>
       </c>
       <c r="B2049" s="3" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C2049" s="4">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="D2049" s="4">
-        <v>0.1536535947712418</v>
+        <v>0.2769454133635334</v>
       </c>
       <c r="E2049" s="4">
-        <v>0.6937254901960784</v>
+        <v>1.852187768969422</v>
       </c>
       <c r="F2049" s="4">
-        <v>0.4452483660130718</v>
+        <v>0.9054763306908267</v>
       </c>
       <c r="G2049" s="4">
-        <v>33.23382352941177</v>
+        <v>77.44663646659117</v>
       </c>
       <c r="H2049" s="3" t="b">
         <v>1</v>
@@ -66318,7 +66318,7 @@
         <v>0</v>
       </c>
       <c r="J2049" s="2">
-        <v>306</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="2050" spans="1:10">
@@ -66326,22 +66326,22 @@
         <v>2020</v>
       </c>
       <c r="B2050" s="3" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C2050" s="4">
-        <v>1.4291</v>
+        <v>1.2889</v>
       </c>
       <c r="D2050" s="4">
-        <v>0.1814199522102748</v>
+        <v>0.2540429705744979</v>
       </c>
       <c r="E2050" s="4">
-        <v>1.010527479091995</v>
+        <v>1.445927136851938</v>
       </c>
       <c r="F2050" s="4">
-        <v>0.3192132616487454</v>
+        <v>0.4345086408220457</v>
       </c>
       <c r="G2050" s="4">
-        <v>61.06878733572282</v>
+        <v>98.18150397010743</v>
       </c>
       <c r="H2050" s="3" t="b">
         <v>1</v>
@@ -66350,7 +66350,7 @@
         <v>0</v>
       </c>
       <c r="J2050" s="2">
-        <v>1674</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="2051" spans="1:10">
@@ -66358,31 +66358,31 @@
         <v>2020</v>
       </c>
       <c r="B2051" s="3" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C2051" s="4">
-        <v>1.4495</v>
+        <v>1.4479</v>
       </c>
       <c r="D2051" s="4">
-        <v>0.166472030651341</v>
+        <v>0.4576702371843918</v>
       </c>
       <c r="E2051" s="4">
-        <v>0.938095019157088</v>
+        <v>1.493552027543994</v>
       </c>
       <c r="F2051" s="4">
-        <v>0.2826881226053639</v>
+        <v>0.5219539020657995</v>
       </c>
       <c r="G2051" s="4">
-        <v>56.7008429118774</v>
+        <v>2497.620791889824</v>
       </c>
       <c r="H2051" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2051" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2051" s="2">
-        <v>1305</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="2052" spans="1:10">
@@ -66390,22 +66390,22 @@
         <v>2020</v>
       </c>
       <c r="B2052" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2052" s="4">
-        <v>1.46</v>
+        <v>1.5475</v>
       </c>
       <c r="D2052" s="4">
-        <v>0.1728424369747899</v>
+        <v>0.249924882629108</v>
       </c>
       <c r="E2052" s="4">
-        <v>0.9171386554621849</v>
+        <v>2.438863849765258</v>
       </c>
       <c r="F2052" s="4">
-        <v>0.4137310924369749</v>
+        <v>0.5086619718309858</v>
       </c>
       <c r="G2052" s="4">
-        <v>46.31848739495799</v>
+        <v>140.8833333333334</v>
       </c>
       <c r="H2052" s="3" t="b">
         <v>1</v>
@@ -66414,7 +66414,7 @@
         <v>0</v>
       </c>
       <c r="J2052" s="2">
-        <v>476</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2053" spans="1:10">
@@ -66422,22 +66422,22 @@
         <v>2020</v>
       </c>
       <c r="B2053" s="3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C2053" s="4">
-        <v>1.1847</v>
+        <v>1.21</v>
       </c>
       <c r="D2053" s="4">
-        <v>0.560666901905434</v>
+        <v>0.1536535947712418</v>
       </c>
       <c r="E2053" s="4">
-        <v>3.042359209597742</v>
+        <v>0.6937254901960784</v>
       </c>
       <c r="F2053" s="4">
-        <v>0.3542244177840512</v>
+        <v>0.4452483660130718</v>
       </c>
       <c r="G2053" s="4">
-        <v>274.2350035285815</v>
+        <v>33.23382352941177</v>
       </c>
       <c r="H2053" s="3" t="b">
         <v>1</v>
@@ -66446,7 +66446,7 @@
         <v>0</v>
       </c>
       <c r="J2053" s="2">
-        <v>1417</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2054" spans="1:10">
@@ -66454,22 +66454,22 @@
         <v>2020</v>
       </c>
       <c r="B2054" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2054" s="4">
-        <v>1.438</v>
+        <v>1.4291</v>
       </c>
       <c r="D2054" s="4">
-        <v>0.1627281303602058</v>
+        <v>0.1814199522102748</v>
       </c>
       <c r="E2054" s="4">
-        <v>1.024954545454545</v>
+        <v>1.010527479091995</v>
       </c>
       <c r="F2054" s="4">
-        <v>0.4227186963979417</v>
+        <v>0.3192132616487454</v>
       </c>
       <c r="G2054" s="4">
-        <v>53.19635506003431</v>
+        <v>61.06878733572282</v>
       </c>
       <c r="H2054" s="3" t="b">
         <v>1</v>
@@ -66478,7 +66478,7 @@
         <v>0</v>
       </c>
       <c r="J2054" s="2">
-        <v>1166</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="2055" spans="1:10">
@@ -66486,22 +66486,22 @@
         <v>2020</v>
       </c>
       <c r="B2055" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C2055" s="4">
-        <v>1.589</v>
+        <v>1.4495</v>
       </c>
       <c r="D2055" s="4">
-        <v>0.2552136465324385</v>
+        <v>0.166472030651341</v>
       </c>
       <c r="E2055" s="4">
-        <v>1.413183445190157</v>
+        <v>0.938095019157088</v>
       </c>
       <c r="F2055" s="4">
-        <v>0.6248668903803132</v>
+        <v>0.2826881226053639</v>
       </c>
       <c r="G2055" s="4">
-        <v>65.67114093959732</v>
+        <v>56.7008429118774</v>
       </c>
       <c r="H2055" s="3" t="b">
         <v>1</v>
@@ -66510,7 +66510,7 @@
         <v>0</v>
       </c>
       <c r="J2055" s="2">
-        <v>894</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2056" spans="1:10">
@@ -66518,22 +66518,22 @@
         <v>2020</v>
       </c>
       <c r="B2056" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2056" s="4">
-        <v>1.4025</v>
+        <v>1.46</v>
       </c>
       <c r="D2056" s="4">
-        <v>0.2242087682672234</v>
+        <v>0.1728424369747899</v>
       </c>
       <c r="E2056" s="4">
-        <v>0.9571670146137787</v>
+        <v>0.9171386554621849</v>
       </c>
       <c r="F2056" s="4">
-        <v>0.4505594989561587</v>
+        <v>0.4137310924369749</v>
       </c>
       <c r="G2056" s="4">
-        <v>52.10694154488518</v>
+        <v>46.31848739495799</v>
       </c>
       <c r="H2056" s="3" t="b">
         <v>1</v>
@@ -66542,7 +66542,7 @@
         <v>0</v>
       </c>
       <c r="J2056" s="2">
-        <v>958</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2057" spans="1:10">
@@ -66550,22 +66550,22 @@
         <v>2020</v>
       </c>
       <c r="B2057" s="3" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C2057" s="4">
-        <v>1.0673</v>
+        <v>1.1847</v>
       </c>
       <c r="D2057" s="4">
-        <v>0.2152775800711744</v>
+        <v>0.560666901905434</v>
       </c>
       <c r="E2057" s="4">
-        <v>1.706651245551601</v>
+        <v>3.042359209597742</v>
       </c>
       <c r="F2057" s="4">
-        <v>0.09054982206405676</v>
+        <v>0.3542244177840512</v>
       </c>
       <c r="G2057" s="4">
-        <v>171.5899466192171</v>
+        <v>274.2350035285815</v>
       </c>
       <c r="H2057" s="3" t="b">
         <v>1</v>
@@ -66574,7 +66574,7 @@
         <v>0</v>
       </c>
       <c r="J2057" s="2">
-        <v>562</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2058" spans="1:10">
@@ -66582,22 +66582,22 @@
         <v>2020</v>
       </c>
       <c r="B2058" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2058" s="4">
-        <v>1.4161</v>
+        <v>1.438</v>
       </c>
       <c r="D2058" s="4">
-        <v>0.1657142857142857</v>
+        <v>0.1627281303602058</v>
       </c>
       <c r="E2058" s="4">
-        <v>0.9008125</v>
+        <v>1.024954545454545</v>
       </c>
       <c r="F2058" s="4">
-        <v>0.4853154761904762</v>
+        <v>0.4227186963979417</v>
       </c>
       <c r="G2058" s="4">
-        <v>41.04211309523809</v>
+        <v>53.19635506003431</v>
       </c>
       <c r="H2058" s="3" t="b">
         <v>1</v>
@@ -66606,7 +66606,7 @@
         <v>0</v>
       </c>
       <c r="J2058" s="2">
-        <v>336</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="2059" spans="1:10">
@@ -66614,22 +66614,22 @@
         <v>2020</v>
       </c>
       <c r="B2059" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2059" s="4">
-        <v>1.355</v>
+        <v>1.589</v>
       </c>
       <c r="D2059" s="4">
-        <v>0.192759587628866</v>
+        <v>0.2552136465324385</v>
       </c>
       <c r="E2059" s="4">
-        <v>1.344822680412371</v>
+        <v>1.413183445190157</v>
       </c>
       <c r="F2059" s="4">
-        <v>0.3755624742268041</v>
+        <v>0.6248668903803132</v>
       </c>
       <c r="G2059" s="4">
-        <v>85.75791752577319</v>
+        <v>65.67114093959732</v>
       </c>
       <c r="H2059" s="3" t="b">
         <v>1</v>
@@ -66638,7 +66638,7 @@
         <v>0</v>
       </c>
       <c r="J2059" s="2">
-        <v>2425</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2060" spans="1:10">
@@ -66646,22 +66646,22 @@
         <v>2020</v>
       </c>
       <c r="B2060" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2060" s="4">
-        <v>1.3996</v>
+        <v>1.4025</v>
       </c>
       <c r="D2060" s="4">
-        <v>0.2038078994614003</v>
+        <v>0.2242087682672234</v>
       </c>
       <c r="E2060" s="4">
-        <v>1.116149012567325</v>
+        <v>0.9571670146137787</v>
       </c>
       <c r="F2060" s="4">
-        <v>0.385274685816876</v>
+        <v>0.4505594989561587</v>
       </c>
       <c r="G2060" s="4">
-        <v>66.77971274685818</v>
+        <v>52.10694154488518</v>
       </c>
       <c r="H2060" s="3" t="b">
         <v>1</v>
@@ -66670,7 +66670,7 @@
         <v>0</v>
       </c>
       <c r="J2060" s="2">
-        <v>557</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2061" spans="1:10">
@@ -66678,22 +66678,22 @@
         <v>2020</v>
       </c>
       <c r="B2061" s="3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C2061" s="4">
-        <v>1.4706</v>
+        <v>1.0673</v>
       </c>
       <c r="D2061" s="4">
-        <v>0.189575572519084</v>
+        <v>0.2152775800711744</v>
       </c>
       <c r="E2061" s="4">
-        <v>1.020497709923664</v>
+        <v>1.706651245551601</v>
       </c>
       <c r="F2061" s="4">
-        <v>0.2345809160305345</v>
+        <v>0.09054982206405676</v>
       </c>
       <c r="G2061" s="4">
-        <v>66.33293893129772</v>
+        <v>171.5899466192171</v>
       </c>
       <c r="H2061" s="3" t="b">
         <v>1</v>
@@ -66702,7 +66702,7 @@
         <v>0</v>
       </c>
       <c r="J2061" s="2">
-        <v>1310</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2062" spans="1:10">
@@ -66710,22 +66710,22 @@
         <v>2020</v>
       </c>
       <c r="B2062" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C2062" s="4">
-        <v>1.4</v>
+        <v>1.4161</v>
       </c>
       <c r="D2062" s="4">
-        <v>0.1218125</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="E2062" s="4">
-        <v>1.305120471014493</v>
+        <v>0.9008125</v>
       </c>
       <c r="F2062" s="4">
-        <v>0.5544248188405797</v>
+        <v>0.4853154761904762</v>
       </c>
       <c r="G2062" s="4">
-        <v>62.32196557971015</v>
+        <v>41.04211309523809</v>
       </c>
       <c r="H2062" s="3" t="b">
         <v>1</v>
@@ -66734,7 +66734,7 @@
         <v>0</v>
       </c>
       <c r="J2062" s="2">
-        <v>1104</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2063" spans="1:10">
@@ -66742,22 +66742,22 @@
         <v>2020</v>
       </c>
       <c r="B2063" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2063" s="4">
-        <v>1.5363</v>
+        <v>1.355</v>
       </c>
       <c r="D2063" s="4">
-        <v>0.265439393939394</v>
+        <v>0.192759587628866</v>
       </c>
       <c r="E2063" s="4">
-        <v>1.311458333333333</v>
+        <v>1.344822680412371</v>
       </c>
       <c r="F2063" s="4">
-        <v>0.4636742424242424</v>
+        <v>0.3755624742268041</v>
       </c>
       <c r="G2063" s="4">
-        <v>72.46022727272727</v>
+        <v>85.75791752577319</v>
       </c>
       <c r="H2063" s="3" t="b">
         <v>1</v>
@@ -66766,7 +66766,7 @@
         <v>0</v>
       </c>
       <c r="J2063" s="2">
-        <v>792</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="2064" spans="1:10">
@@ -66774,31 +66774,31 @@
         <v>2020</v>
       </c>
       <c r="B2064" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2064" s="4">
-        <v>1.5777</v>
+        <v>1.3996</v>
       </c>
       <c r="D2064" s="4">
-        <v>0.1593759124087591</v>
+        <v>0.2038078994614003</v>
       </c>
       <c r="E2064" s="4">
-        <v>1.056975364963504</v>
+        <v>1.116149012567325</v>
       </c>
       <c r="F2064" s="4">
-        <v>0.3590100364963504</v>
+        <v>0.385274685816876</v>
       </c>
       <c r="G2064" s="4">
-        <v>54.34215328467153</v>
+        <v>66.77971274685818</v>
       </c>
       <c r="H2064" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2064" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2064" s="2">
-        <v>1096</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2065" spans="1:10">
@@ -66806,31 +66806,31 @@
         <v>2020</v>
       </c>
       <c r="B2065" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C2065" s="4">
-        <v>1.2791</v>
+        <v>1.4706</v>
       </c>
       <c r="D2065" s="4">
-        <v>0.1737625508819539</v>
+        <v>0.189575572519084</v>
       </c>
       <c r="E2065" s="4">
-        <v>1.00723473541384</v>
+        <v>1.020497709923664</v>
       </c>
       <c r="F2065" s="4">
-        <v>0.2281478968792401</v>
+        <v>0.2345809160305345</v>
       </c>
       <c r="G2065" s="4">
-        <v>74.49219810040705</v>
+        <v>66.33293893129772</v>
       </c>
       <c r="H2065" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2065" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2065" s="2">
-        <v>737</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="2066" spans="1:10">
@@ -66838,22 +66838,22 @@
         <v>2020</v>
       </c>
       <c r="B2066" s="3" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C2066" s="4">
-        <v>1.3392</v>
+        <v>1.4</v>
       </c>
       <c r="D2066" s="4">
-        <v>0.120171875</v>
+        <v>0.1218125</v>
       </c>
       <c r="E2066" s="4">
-        <v>1.201805397727273</v>
+        <v>1.305120471014493</v>
       </c>
       <c r="F2066" s="4">
-        <v>0.52025</v>
+        <v>0.5544248188405797</v>
       </c>
       <c r="G2066" s="4">
-        <v>59.86612215909091</v>
+        <v>62.32196557971015</v>
       </c>
       <c r="H2066" s="3" t="b">
         <v>1</v>
@@ -66862,7 +66862,7 @@
         <v>0</v>
       </c>
       <c r="J2066" s="2">
-        <v>704</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="2067" spans="1:10">
@@ -66870,22 +66870,22 @@
         <v>2020</v>
       </c>
       <c r="B2067" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C2067" s="4">
-        <v>1.4532</v>
+        <v>1.5363</v>
       </c>
       <c r="D2067" s="4">
-        <v>0.1421153305203938</v>
+        <v>0.265439393939394</v>
       </c>
       <c r="E2067" s="4">
-        <v>1.378880450070324</v>
+        <v>1.311458333333333</v>
       </c>
       <c r="F2067" s="4">
-        <v>0.2418368495077358</v>
+        <v>0.4636742424242424</v>
       </c>
       <c r="G2067" s="4">
-        <v>88.02362869198312</v>
+        <v>72.46022727272727</v>
       </c>
       <c r="H2067" s="3" t="b">
         <v>1</v>
@@ -66894,7 +66894,7 @@
         <v>0</v>
       </c>
       <c r="J2067" s="2">
-        <v>711</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2068" spans="1:10">
@@ -66902,31 +66902,31 @@
         <v>2020</v>
       </c>
       <c r="B2068" s="3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C2068" s="4">
-        <v>1.2421</v>
+        <v>1.5777</v>
       </c>
       <c r="D2068" s="4">
-        <v>0.2827809322033898</v>
+        <v>0.1593759124087591</v>
       </c>
       <c r="E2068" s="4">
-        <v>0.9828203389830509</v>
+        <v>1.056975364963504</v>
       </c>
       <c r="F2068" s="4">
-        <v>0.171875</v>
+        <v>0.3590100364963504</v>
       </c>
       <c r="G2068" s="4">
-        <v>88.05372881355933</v>
+        <v>54.34215328467153</v>
       </c>
       <c r="H2068" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2068" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2068" s="2">
-        <v>2360</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="2069" spans="1:10">
@@ -66934,31 +66934,31 @@
         <v>2020</v>
       </c>
       <c r="B2069" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C2069" s="4">
-        <v>1.476</v>
+        <v>1.2791</v>
       </c>
       <c r="D2069" s="4">
-        <v>0.1476218020022247</v>
+        <v>0.1737625508819539</v>
       </c>
       <c r="E2069" s="4">
-        <v>1.182110122358176</v>
+        <v>1.00723473541384</v>
       </c>
       <c r="F2069" s="4">
-        <v>0.7147552836484984</v>
+        <v>0.2281478968792401</v>
       </c>
       <c r="G2069" s="4">
-        <v>41.66512791991101</v>
+        <v>74.49219810040705</v>
       </c>
       <c r="H2069" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2069" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2069" s="2">
-        <v>899</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2070" spans="1:10">
@@ -66966,22 +66966,22 @@
         <v>2020</v>
       </c>
       <c r="B2070" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2070" s="4">
-        <v>1.3121</v>
+        <v>1.3392</v>
       </c>
       <c r="D2070" s="4">
-        <v>0.2335446927374301</v>
+        <v>0.120171875</v>
       </c>
       <c r="E2070" s="4">
-        <v>0.8557150837988827</v>
+        <v>1.201805397727273</v>
       </c>
       <c r="F2070" s="4">
-        <v>0.3228966480446927</v>
+        <v>0.52025</v>
       </c>
       <c r="G2070" s="4">
-        <v>58.40893854748604</v>
+        <v>59.86612215909091</v>
       </c>
       <c r="H2070" s="3" t="b">
         <v>1</v>
@@ -66990,7 +66990,7 @@
         <v>0</v>
       </c>
       <c r="J2070" s="2">
-        <v>358</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2071" spans="1:10">
@@ -66998,22 +66998,22 @@
         <v>2020</v>
       </c>
       <c r="B2071" s="3" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C2071" s="4">
-        <v>1.346</v>
+        <v>1.4532</v>
       </c>
       <c r="D2071" s="4">
-        <v>0.173920125293657</v>
+        <v>0.1421153305203938</v>
       </c>
       <c r="E2071" s="4">
-        <v>1.248100234925607</v>
+        <v>1.378880450070324</v>
       </c>
       <c r="F2071" s="4">
-        <v>0.5097932654659358</v>
+        <v>0.2418368495077358</v>
       </c>
       <c r="G2071" s="4">
-        <v>67.77388410336727</v>
+        <v>88.02362869198312</v>
       </c>
       <c r="H2071" s="3" t="b">
         <v>1</v>
@@ -67022,7 +67022,7 @@
         <v>0</v>
       </c>
       <c r="J2071" s="2">
-        <v>1277</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2072" spans="1:10">
@@ -67030,22 +67030,22 @@
         <v>2020</v>
       </c>
       <c r="B2072" s="3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C2072" s="4">
-        <v>1.1228</v>
+        <v>1.2421</v>
       </c>
       <c r="D2072" s="4">
-        <v>0.2101695652173913</v>
+        <v>0.2827809322033898</v>
       </c>
       <c r="E2072" s="4">
-        <v>0.9591246376811595</v>
+        <v>0.9828203389830509</v>
       </c>
       <c r="F2072" s="4">
-        <v>0.125363768115942</v>
+        <v>0.171875</v>
       </c>
       <c r="G2072" s="4">
-        <v>92.97565217391305</v>
+        <v>88.05372881355933</v>
       </c>
       <c r="H2072" s="3" t="b">
         <v>1</v>
@@ -67054,7 +67054,7 @@
         <v>0</v>
       </c>
       <c r="J2072" s="2">
-        <v>690</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2073" spans="1:10">
@@ -67062,22 +67062,22 @@
         <v>2020</v>
       </c>
       <c r="B2073" s="3" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C2073" s="4">
-        <v>1.5859</v>
+        <v>1.476</v>
       </c>
       <c r="D2073" s="4">
-        <v>0.1368448928121059</v>
+        <v>0.1476218020022247</v>
       </c>
       <c r="E2073" s="4">
-        <v>0.7643820933165195</v>
+        <v>1.182110122358176</v>
       </c>
       <c r="F2073" s="4">
-        <v>0.3578915510718789</v>
+        <v>0.7147552836484984</v>
       </c>
       <c r="G2073" s="4">
-        <v>34.26078184110971</v>
+        <v>41.66512791991101</v>
       </c>
       <c r="H2073" s="3" t="b">
         <v>1</v>
@@ -67086,7 +67086,7 @@
         <v>0</v>
       </c>
       <c r="J2073" s="2">
-        <v>793</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2074" spans="1:10">
@@ -67094,22 +67094,22 @@
         <v>2020</v>
       </c>
       <c r="B2074" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2074" s="4">
-        <v>1.469</v>
+        <v>1.3121</v>
       </c>
       <c r="D2074" s="4">
-        <v>0.1633979797979798</v>
+        <v>0.2335446927374301</v>
       </c>
       <c r="E2074" s="4">
-        <v>0.8510848484848484</v>
+        <v>0.8557150837988827</v>
       </c>
       <c r="F2074" s="4">
-        <v>0.219870707070707</v>
+        <v>0.3228966480446927</v>
       </c>
       <c r="G2074" s="4">
-        <v>54.0920202020202</v>
+        <v>58.40893854748604</v>
       </c>
       <c r="H2074" s="3" t="b">
         <v>1</v>
@@ -67118,7 +67118,7 @@
         <v>0</v>
       </c>
       <c r="J2074" s="2">
-        <v>495</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2075" spans="1:10">
@@ -67126,22 +67126,22 @@
         <v>2020</v>
       </c>
       <c r="B2075" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2075" s="4">
-        <v>1.5876</v>
+        <v>1.346</v>
       </c>
       <c r="D2075" s="4">
-        <v>0.2239061685490878</v>
+        <v>0.173920125293657</v>
       </c>
       <c r="E2075" s="4">
-        <v>1.005920938314509</v>
+        <v>1.248100234925607</v>
       </c>
       <c r="F2075" s="4">
-        <v>0.5295855777584708</v>
+        <v>0.5097932654659358</v>
       </c>
       <c r="G2075" s="4">
-        <v>44.10608166811468</v>
+        <v>67.77388410336727</v>
       </c>
       <c r="H2075" s="3" t="b">
         <v>1</v>
@@ -67150,7 +67150,7 @@
         <v>0</v>
       </c>
       <c r="J2075" s="2">
-        <v>1151</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="2076" spans="1:10">
@@ -67158,22 +67158,22 @@
         <v>2020</v>
       </c>
       <c r="B2076" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2076" s="4">
-        <v>1.3276</v>
+        <v>1.1228</v>
       </c>
       <c r="D2076" s="4">
-        <v>0.2025395348837209</v>
+        <v>0.2101695652173913</v>
       </c>
       <c r="E2076" s="4">
-        <v>1.4158</v>
+        <v>0.9591246376811595</v>
       </c>
       <c r="F2076" s="4">
-        <v>0.7143441860465115</v>
+        <v>0.125363768115942</v>
       </c>
       <c r="G2076" s="4">
-        <v>68.09139534883721</v>
+        <v>92.97565217391305</v>
       </c>
       <c r="H2076" s="3" t="b">
         <v>1</v>
@@ -67182,7 +67182,7 @@
         <v>0</v>
       </c>
       <c r="J2076" s="2">
-        <v>215</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2077" spans="1:10">
@@ -67190,22 +67190,22 @@
         <v>2020</v>
       </c>
       <c r="B2077" s="3" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C2077" s="4">
-        <v>1.3912</v>
+        <v>1.5859</v>
       </c>
       <c r="D2077" s="4">
-        <v>0.1733537044788614</v>
+        <v>0.1368448928121059</v>
       </c>
       <c r="E2077" s="4">
-        <v>1.294420259522813</v>
+        <v>0.7643820933165195</v>
       </c>
       <c r="F2077" s="4">
-        <v>0.5216272498953537</v>
+        <v>0.3578915510718789</v>
       </c>
       <c r="G2077" s="4">
-        <v>68.00939723733781</v>
+        <v>34.26078184110971</v>
       </c>
       <c r="H2077" s="3" t="b">
         <v>1</v>
@@ -67214,7 +67214,7 @@
         <v>0</v>
       </c>
       <c r="J2077" s="2">
-        <v>4778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2078" spans="1:10">
@@ -67222,22 +67222,22 @@
         <v>2020</v>
       </c>
       <c r="B2078" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2078" s="4">
-        <v>1.4523</v>
+        <v>1.469</v>
       </c>
       <c r="D2078" s="4">
-        <v>0.1080586080586081</v>
+        <v>0.1633979797979798</v>
       </c>
       <c r="E2078" s="4">
-        <v>0.9872454212454214</v>
+        <v>0.8510848484848484</v>
       </c>
       <c r="F2078" s="4">
-        <v>0.5675457875457877</v>
+        <v>0.219870707070707</v>
       </c>
       <c r="G2078" s="4">
-        <v>36.33846153846154</v>
+        <v>54.0920202020202</v>
       </c>
       <c r="H2078" s="3" t="b">
         <v>1</v>
@@ -67246,7 +67246,7 @@
         <v>0</v>
       </c>
       <c r="J2078" s="2">
-        <v>273</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2079" spans="1:10">
@@ -67254,22 +67254,22 @@
         <v>2020</v>
       </c>
       <c r="B2079" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2079" s="4">
-        <v>1.3256</v>
+        <v>1.5876</v>
       </c>
       <c r="D2079" s="4">
-        <v>0.1089622559652929</v>
+        <v>0.2239061685490878</v>
       </c>
       <c r="E2079" s="4">
-        <v>1.07375704989154</v>
+        <v>1.005920938314509</v>
       </c>
       <c r="F2079" s="4">
-        <v>0.5739696312364425</v>
+        <v>0.5295855777584708</v>
       </c>
       <c r="G2079" s="4">
-        <v>45.92401301518439</v>
+        <v>44.10608166811468</v>
       </c>
       <c r="H2079" s="3" t="b">
         <v>1</v>
@@ -67278,7 +67278,7 @@
         <v>0</v>
       </c>
       <c r="J2079" s="2">
-        <v>2305</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="2080" spans="1:10">
@@ -67286,22 +67286,22 @@
         <v>2020</v>
       </c>
       <c r="B2080" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C2080" s="4">
-        <v>1.3995</v>
+        <v>1.3276</v>
       </c>
       <c r="D2080" s="4">
-        <v>0.1988568883610451</v>
+        <v>0.2025395348837209</v>
       </c>
       <c r="E2080" s="4">
-        <v>1.310647268408551</v>
+        <v>1.4158</v>
       </c>
       <c r="F2080" s="4">
-        <v>0.4297119952494062</v>
+        <v>0.7143441860465115</v>
       </c>
       <c r="G2080" s="4">
-        <v>77.15558194774347</v>
+        <v>68.09139534883721</v>
       </c>
       <c r="H2080" s="3" t="b">
         <v>1</v>
@@ -67310,7 +67310,7 @@
         <v>0</v>
       </c>
       <c r="J2080" s="2">
-        <v>1684</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2081" spans="1:10">
@@ -67318,22 +67318,22 @@
         <v>2020</v>
       </c>
       <c r="B2081" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C2081" s="4">
-        <v>1.3026</v>
+        <v>1.3912</v>
       </c>
       <c r="D2081" s="4">
-        <v>0.1411411116435074</v>
+        <v>0.1733537044788614</v>
       </c>
       <c r="E2081" s="4">
-        <v>1.041989698131289</v>
+        <v>1.294420259522813</v>
       </c>
       <c r="F2081" s="4">
-        <v>0.08143172017249634</v>
+        <v>0.5216272498953537</v>
       </c>
       <c r="G2081" s="4">
-        <v>84.57472448490657</v>
+        <v>68.00939723733781</v>
       </c>
       <c r="H2081" s="3" t="b">
         <v>1</v>
@@ -67342,7 +67342,7 @@
         <v>0</v>
       </c>
       <c r="J2081" s="2">
-        <v>4174</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="2082" spans="1:10">
@@ -67350,31 +67350,31 @@
         <v>2020</v>
       </c>
       <c r="B2082" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2082" s="4">
-        <v>1.3875</v>
+        <v>1.4523</v>
       </c>
       <c r="D2082" s="4">
-        <v>0.2549854620976116</v>
+        <v>0.1080586080586081</v>
       </c>
       <c r="E2082" s="4">
-        <v>0.7691703011422638</v>
+        <v>0.9872454212454214</v>
       </c>
       <c r="F2082" s="4">
-        <v>0.2260332294911735</v>
+        <v>0.5675457875457877</v>
       </c>
       <c r="G2082" s="4">
-        <v>57.52232606438214</v>
+        <v>36.33846153846154</v>
       </c>
       <c r="H2082" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2082" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2082" s="2">
-        <v>963</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2083" spans="1:10">
@@ -67382,22 +67382,22 @@
         <v>2020</v>
       </c>
       <c r="B2083" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C2083" s="4">
-        <v>1.1662</v>
+        <v>1.3256</v>
       </c>
       <c r="D2083" s="4">
-        <v>0.1924493487698987</v>
+        <v>0.1089622559652929</v>
       </c>
       <c r="E2083" s="4">
-        <v>0.8677156295224313</v>
+        <v>1.07375704989154</v>
       </c>
       <c r="F2083" s="4">
-        <v>0.3994117221418235</v>
+        <v>0.5739696312364425</v>
       </c>
       <c r="G2083" s="4">
-        <v>56.65777858176556</v>
+        <v>45.92401301518439</v>
       </c>
       <c r="H2083" s="3" t="b">
         <v>1</v>
@@ -67406,7 +67406,7 @@
         <v>0</v>
       </c>
       <c r="J2083" s="2">
-        <v>1382</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="2084" spans="1:10">
@@ -67414,22 +67414,22 @@
         <v>2020</v>
       </c>
       <c r="B2084" s="3" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C2084" s="4">
-        <v>1.376</v>
+        <v>1.3995</v>
       </c>
       <c r="D2084" s="4">
-        <v>0.1926791666666667</v>
+        <v>0.1988568883610451</v>
       </c>
       <c r="E2084" s="4">
-        <v>1.185672222222222</v>
+        <v>1.310647268408551</v>
       </c>
       <c r="F2084" s="4">
-        <v>0.3577527777777778</v>
+        <v>0.4297119952494062</v>
       </c>
       <c r="G2084" s="4">
-        <v>74.17298611111111</v>
+        <v>77.15558194774347</v>
       </c>
       <c r="H2084" s="3" t="b">
         <v>1</v>
@@ -67438,7 +67438,7 @@
         <v>0</v>
       </c>
       <c r="J2084" s="2">
-        <v>720</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="2085" spans="1:10">
@@ -67446,22 +67446,22 @@
         <v>2020</v>
       </c>
       <c r="B2085" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C2085" s="4">
-        <v>1.23</v>
+        <v>1.3026</v>
       </c>
       <c r="D2085" s="4">
-        <v>0.2151150943396226</v>
+        <v>0.1411411116435074</v>
       </c>
       <c r="E2085" s="4">
-        <v>1.340506918238994</v>
+        <v>1.041989698131289</v>
       </c>
       <c r="F2085" s="4">
-        <v>0.627298113207547</v>
+        <v>0.08143172017249634</v>
       </c>
       <c r="G2085" s="4">
-        <v>75.47349056603774</v>
+        <v>84.57472448490657</v>
       </c>
       <c r="H2085" s="3" t="b">
         <v>1</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="J2085" s="2">
-        <v>1590</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="2086" spans="1:10">
@@ -67478,22 +67478,22 @@
         <v>2020</v>
       </c>
       <c r="B2086" s="3" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C2086" s="4">
-        <v>1.4796</v>
+        <v>1.3875</v>
       </c>
       <c r="D2086" s="4">
-        <v>0.2549283078545071</v>
+        <v>0.2549854620976116</v>
       </c>
       <c r="E2086" s="4">
-        <v>1.01739483394834</v>
+        <v>0.7691703011422638</v>
       </c>
       <c r="F2086" s="4">
-        <v>0.4151560358460729</v>
+        <v>0.2260332294911735</v>
       </c>
       <c r="G2086" s="4">
-        <v>57.93236689509752</v>
+        <v>57.52232606438214</v>
       </c>
       <c r="H2086" s="3" t="b">
         <v>0</v>
@@ -67502,7 +67502,7 @@
         <v>0</v>
       </c>
       <c r="J2086" s="2">
-        <v>1897</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2087" spans="1:10">
@@ -67510,22 +67510,22 @@
         <v>2020</v>
       </c>
       <c r="B2087" s="3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C2087" s="4">
-        <v>1.2894</v>
+        <v>1.1662</v>
       </c>
       <c r="D2087" s="4">
-        <v>0.1730845986984816</v>
+        <v>0.1924493487698987</v>
       </c>
       <c r="E2087" s="4">
-        <v>1.316271872740419</v>
+        <v>0.8677156295224313</v>
       </c>
       <c r="F2087" s="4">
-        <v>0.6272089660159075</v>
+        <v>0.3994117221418235</v>
       </c>
       <c r="G2087" s="4">
-        <v>66.86428054953001</v>
+        <v>56.65777858176556</v>
       </c>
       <c r="H2087" s="3" t="b">
         <v>1</v>
@@ -67534,7 +67534,7 @@
         <v>0</v>
       </c>
       <c r="J2087" s="2">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2088" spans="1:10">
@@ -67542,22 +67542,22 @@
         <v>2020</v>
       </c>
       <c r="B2088" s="3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C2088" s="4">
-        <v>1.775</v>
+        <v>1.376</v>
       </c>
       <c r="D2088" s="4">
-        <v>0.1929843597262952</v>
+        <v>0.1926791666666667</v>
       </c>
       <c r="E2088" s="4">
-        <v>1.42377908113392</v>
+        <v>1.185672222222222</v>
       </c>
       <c r="F2088" s="4">
-        <v>0.5509198435972631</v>
+        <v>0.3577527777777778</v>
       </c>
       <c r="G2088" s="4">
-        <v>60.04838709677419</v>
+        <v>74.17298611111111</v>
       </c>
       <c r="H2088" s="3" t="b">
         <v>1</v>
@@ -67566,7 +67566,7 @@
         <v>0</v>
       </c>
       <c r="J2088" s="2">
-        <v>1023</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2089" spans="1:10">
@@ -67574,31 +67574,31 @@
         <v>2020</v>
       </c>
       <c r="B2089" s="3" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C2089" s="4">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="D2089" s="4">
-        <v>0.2407268623024831</v>
+        <v>0.2151150943396226</v>
       </c>
       <c r="E2089" s="4">
-        <v>0.914941309255079</v>
+        <v>1.340506918238994</v>
       </c>
       <c r="F2089" s="4">
-        <v>0.3645158013544018</v>
+        <v>0.627298113207547</v>
       </c>
       <c r="G2089" s="4">
-        <v>49.75801354401806</v>
+        <v>75.47349056603774</v>
       </c>
       <c r="H2089" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2089" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2089" s="2">
-        <v>886</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="2090" spans="1:10">
@@ -67606,31 +67606,31 @@
         <v>2020</v>
       </c>
       <c r="B2090" s="3" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C2090" s="4">
-        <v>1.46</v>
+        <v>1.4796</v>
       </c>
       <c r="D2090" s="4">
-        <v>0.1657598039215686</v>
+        <v>0.2549283078545071</v>
       </c>
       <c r="E2090" s="4">
-        <v>1.375887254901961</v>
+        <v>1.01739483394834</v>
       </c>
       <c r="F2090" s="4">
-        <v>0.6425245098039215</v>
+        <v>0.4151560358460729</v>
       </c>
       <c r="G2090" s="4">
-        <v>61.58480392156864</v>
+        <v>57.93236689509752</v>
       </c>
       <c r="H2090" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2090" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2090" s="2">
-        <v>408</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="2091" spans="1:10">
@@ -67638,22 +67638,22 @@
         <v>2020</v>
       </c>
       <c r="B2091" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2091" s="4">
-        <v>1.3779</v>
+        <v>1.2894</v>
       </c>
       <c r="D2091" s="4">
-        <v>0.2550759036144578</v>
+        <v>0.1730845986984816</v>
       </c>
       <c r="E2091" s="4">
-        <v>1.56180843373494</v>
+        <v>1.316271872740419</v>
       </c>
       <c r="F2091" s="4">
-        <v>0.4071024096385545</v>
+        <v>0.6272089660159075</v>
       </c>
       <c r="G2091" s="4">
-        <v>102.3138554216868</v>
+        <v>66.86428054953001</v>
       </c>
       <c r="H2091" s="3" t="b">
         <v>1</v>
@@ -67662,7 +67662,7 @@
         <v>0</v>
       </c>
       <c r="J2091" s="2">
-        <v>830</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2092" spans="1:10">
@@ -67670,22 +67670,22 @@
         <v>2020</v>
       </c>
       <c r="B2092" s="3" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C2092" s="4">
-        <v>1.4394</v>
+        <v>1.775</v>
       </c>
       <c r="D2092" s="4">
-        <v>0.1701942857142857</v>
+        <v>0.1929843597262952</v>
       </c>
       <c r="E2092" s="4">
-        <v>1.373022857142857</v>
+        <v>1.42377908113392</v>
       </c>
       <c r="F2092" s="4">
-        <v>0.6151114285714285</v>
+        <v>0.5509198435972631</v>
       </c>
       <c r="G2092" s="4">
-        <v>64.47657142857143</v>
+        <v>60.04838709677419</v>
       </c>
       <c r="H2092" s="3" t="b">
         <v>1</v>
@@ -67694,7 +67694,7 @@
         <v>0</v>
       </c>
       <c r="J2092" s="2">
-        <v>350</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="2093" spans="1:10">
@@ -67702,22 +67702,22 @@
         <v>2020</v>
       </c>
       <c r="B2093" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2093" s="4">
-        <v>1.3578</v>
+        <v>1.59</v>
       </c>
       <c r="D2093" s="4">
-        <v>0.1628342541436464</v>
+        <v>0.2407268623024831</v>
       </c>
       <c r="E2093" s="4">
-        <v>0.8049419889502762</v>
+        <v>0.914941309255079</v>
       </c>
       <c r="F2093" s="4">
-        <v>0.2084944751381214</v>
+        <v>0.3645158013544018</v>
       </c>
       <c r="G2093" s="4">
-        <v>55.91892265193371</v>
+        <v>49.75801354401806</v>
       </c>
       <c r="H2093" s="3" t="b">
         <v>0</v>
@@ -67726,7 +67726,7 @@
         <v>0</v>
       </c>
       <c r="J2093" s="2">
-        <v>724</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2094" spans="1:10">
@@ -67734,22 +67734,22 @@
         <v>2020</v>
       </c>
       <c r="B2094" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C2094" s="4">
-        <v>1.5147</v>
+        <v>1.46</v>
       </c>
       <c r="D2094" s="4">
-        <v>0.1879974271012007</v>
+        <v>0.1657598039215686</v>
       </c>
       <c r="E2094" s="4">
-        <v>1.133492281303602</v>
+        <v>1.375887254901961</v>
       </c>
       <c r="F2094" s="4">
-        <v>0.5805789022298455</v>
+        <v>0.6425245098039215</v>
       </c>
       <c r="G2094" s="4">
-        <v>48.91470840480275</v>
+        <v>61.58480392156864</v>
       </c>
       <c r="H2094" s="3" t="b">
         <v>1</v>
@@ -67758,7 +67758,7 @@
         <v>0</v>
       </c>
       <c r="J2094" s="2">
-        <v>1166</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2095" spans="1:10">
@@ -67766,22 +67766,22 @@
         <v>2020</v>
       </c>
       <c r="B2095" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2095" s="4">
-        <v>1.3133</v>
+        <v>1.3779</v>
       </c>
       <c r="D2095" s="4">
-        <v>0.2016405077899596</v>
+        <v>0.2550759036144578</v>
       </c>
       <c r="E2095" s="4">
-        <v>0.9728199653779573</v>
+        <v>1.56180843373494</v>
       </c>
       <c r="F2095" s="4">
-        <v>0.3152792844777842</v>
+        <v>0.4071024096385545</v>
       </c>
       <c r="G2095" s="4">
-        <v>65.41927293710329</v>
+        <v>102.3138554216868</v>
       </c>
       <c r="H2095" s="3" t="b">
         <v>1</v>
@@ -67790,7 +67790,7 @@
         <v>0</v>
       </c>
       <c r="J2095" s="2">
-        <v>1733</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2096" spans="1:10">
@@ -67798,22 +67798,22 @@
         <v>2020</v>
       </c>
       <c r="B2096" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C2096" s="4">
-        <v>1.395</v>
+        <v>1.4394</v>
       </c>
       <c r="D2096" s="4">
-        <v>0.1814528795811518</v>
+        <v>0.1701942857142857</v>
       </c>
       <c r="E2096" s="4">
-        <v>1.358458115183246</v>
+        <v>1.373022857142857</v>
       </c>
       <c r="F2096" s="4">
-        <v>0.6035732984293194</v>
+        <v>0.6151114285714285</v>
       </c>
       <c r="G2096" s="4">
-        <v>67.12048429319373</v>
+        <v>64.47657142857143</v>
       </c>
       <c r="H2096" s="3" t="b">
         <v>1</v>
@@ -67822,7 +67822,7 @@
         <v>0</v>
       </c>
       <c r="J2096" s="2">
-        <v>764</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2097" spans="1:10">
@@ -67830,31 +67830,31 @@
         <v>2020</v>
       </c>
       <c r="B2097" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2097" s="4">
-        <v>1.5487</v>
+        <v>1.3578</v>
       </c>
       <c r="D2097" s="4">
-        <v>0.133160741885626</v>
+        <v>0.1628342541436464</v>
       </c>
       <c r="E2097" s="4">
-        <v>0.7524482225656879</v>
+        <v>0.8049419889502762</v>
       </c>
       <c r="F2097" s="4">
-        <v>0.383902627511592</v>
+        <v>0.2084944751381214</v>
       </c>
       <c r="G2097" s="4">
-        <v>32.39536321483771</v>
+        <v>55.91892265193371</v>
       </c>
       <c r="H2097" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2097" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J2097" s="2">
-        <v>647</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2098" spans="1:10">
@@ -67862,22 +67862,22 @@
         <v>2020</v>
       </c>
       <c r="B2098" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2098" s="4">
-        <v>1.5022</v>
+        <v>1.5147</v>
       </c>
       <c r="D2098" s="4">
-        <v>0.1387953846153846</v>
+        <v>0.1879974271012007</v>
       </c>
       <c r="E2098" s="4">
-        <v>0.8687692307692308</v>
+        <v>1.133492281303602</v>
       </c>
       <c r="F2098" s="4">
-        <v>0.3045784615384615</v>
+        <v>0.5805789022298455</v>
       </c>
       <c r="G2098" s="4">
-        <v>47.00361538461539</v>
+        <v>48.91470840480275</v>
       </c>
       <c r="H2098" s="3" t="b">
         <v>1</v>
@@ -67886,7 +67886,7 @@
         <v>0</v>
       </c>
       <c r="J2098" s="2">
-        <v>1300</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="2099" spans="1:10">
@@ -67894,22 +67894,22 @@
         <v>2020</v>
       </c>
       <c r="B2099" s="3" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C2099" s="4">
-        <v>1.4717</v>
+        <v>1.3133</v>
       </c>
       <c r="D2099" s="4">
-        <v>0.1516687565308255</v>
+        <v>0.2016405077899596</v>
       </c>
       <c r="E2099" s="4">
-        <v>0.8677847439916405</v>
+        <v>0.9728199653779573</v>
       </c>
       <c r="F2099" s="4">
-        <v>0.3335276907001045</v>
+        <v>0.3152792844777842</v>
       </c>
       <c r="G2099" s="4">
-        <v>46.60877742946708</v>
+        <v>65.41927293710329</v>
       </c>
       <c r="H2099" s="3" t="b">
         <v>1</v>
@@ -67918,7 +67918,7 @@
         <v>0</v>
       </c>
       <c r="J2099" s="2">
-        <v>957</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="2100" spans="1:10">
@@ -67926,22 +67926,22 @@
         <v>2020</v>
       </c>
       <c r="B2100" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2100" s="4">
-        <v>1.54</v>
+        <v>1.395</v>
       </c>
       <c r="D2100" s="4">
-        <v>0.1429146757679181</v>
+        <v>0.1814528795811518</v>
       </c>
       <c r="E2100" s="4">
-        <v>0.8428612059158136</v>
+        <v>1.358458115183246</v>
       </c>
       <c r="F2100" s="4">
-        <v>0.389990898748578</v>
+        <v>0.6035732984293194</v>
       </c>
       <c r="G2100" s="4">
-        <v>38.68731513083049</v>
+        <v>67.12048429319373</v>
       </c>
       <c r="H2100" s="3" t="b">
         <v>1</v>
@@ -67950,7 +67950,7 @@
         <v>0</v>
       </c>
       <c r="J2100" s="2">
-        <v>879</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2101" spans="1:10">
@@ -67958,22 +67958,22 @@
         <v>2020</v>
       </c>
       <c r="B2101" s="3" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C2101" s="4">
-        <v>0.9998</v>
+        <v>1.5487</v>
       </c>
       <c r="D2101" s="4">
-        <v>0.1871335376532399</v>
+        <v>0.133160741885626</v>
       </c>
       <c r="E2101" s="4">
-        <v>0.8464680385288967</v>
+        <v>0.7524482225656879</v>
       </c>
       <c r="F2101" s="4">
-        <v>0.2409873029772329</v>
+        <v>0.383902627511592</v>
       </c>
       <c r="G2101" s="4">
-        <v>79.27502189141856</v>
+        <v>32.39536321483771</v>
       </c>
       <c r="H2101" s="3" t="b">
         <v>1</v>
@@ -67982,7 +67982,7 @@
         <v>0</v>
       </c>
       <c r="J2101" s="2">
-        <v>2284</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2102" spans="1:10">
@@ -67990,22 +67990,22 @@
         <v>2020</v>
       </c>
       <c r="B2102" s="3" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C2102" s="4">
-        <v>1.2248</v>
+        <v>1.5022</v>
       </c>
       <c r="D2102" s="4">
-        <v>0.1449057971014493</v>
+        <v>0.1387953846153846</v>
       </c>
       <c r="E2102" s="4">
-        <v>1.9365</v>
+        <v>0.8687692307692308</v>
       </c>
       <c r="F2102" s="4">
-        <v>1.091086956521739</v>
+        <v>0.3045784615384615</v>
       </c>
       <c r="G2102" s="4">
-        <v>80.85507246376811</v>
+        <v>47.00361538461539</v>
       </c>
       <c r="H2102" s="3" t="b">
         <v>1</v>
@@ -68014,7 +68014,7 @@
         <v>0</v>
       </c>
       <c r="J2102" s="2">
-        <v>276</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="2103" spans="1:10">
@@ -68022,22 +68022,22 @@
         <v>2020</v>
       </c>
       <c r="B2103" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C2103" s="4">
-        <v>1.4597</v>
+        <v>1.4717</v>
       </c>
       <c r="D2103" s="4">
-        <v>0.1322378640776699</v>
+        <v>0.1516687565308255</v>
       </c>
       <c r="E2103" s="4">
-        <v>1.304495145631068</v>
+        <v>0.8677847439916405</v>
       </c>
       <c r="F2103" s="4">
-        <v>0.368143203883495</v>
+        <v>0.3335276907001045</v>
       </c>
       <c r="G2103" s="4">
-        <v>73.20667475728156</v>
+        <v>46.60877742946708</v>
       </c>
       <c r="H2103" s="3" t="b">
         <v>1</v>
@@ -68046,7 +68046,7 @@
         <v>0</v>
       </c>
       <c r="J2103" s="2">
-        <v>412</v>
+        <v>957</v>
       </c>
     </row>
     <row r="2104" spans="1:10">
@@ -68054,22 +68054,22 @@
         <v>2020</v>
       </c>
       <c r="B2104" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C2104" s="4">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="D2104" s="4">
-        <v>0.2126379192334018</v>
+        <v>0.1429146757679181</v>
       </c>
       <c r="E2104" s="4">
-        <v>0.7476721423682409</v>
+        <v>0.8428612059158136</v>
       </c>
       <c r="F2104" s="4">
-        <v>0.103116358658453</v>
+        <v>0.389990898748578</v>
       </c>
       <c r="G2104" s="4">
-        <v>70.26180698151951</v>
+        <v>38.68731513083049</v>
       </c>
       <c r="H2104" s="3" t="b">
         <v>1</v>
@@ -68078,7 +68078,7 @@
         <v>0</v>
       </c>
       <c r="J2104" s="2">
-        <v>1461</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2105" spans="1:10">
@@ -68086,31 +68086,31 @@
         <v>2020</v>
       </c>
       <c r="B2105" s="3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C2105" s="4">
-        <v>1.5053</v>
+        <v>0.9998</v>
       </c>
       <c r="D2105" s="4">
-        <v>0.1903049040511727</v>
+        <v>0.1871335376532399</v>
       </c>
       <c r="E2105" s="4">
-        <v>0.8808816631130064</v>
+        <v>0.8464680385288967</v>
       </c>
       <c r="F2105" s="4">
-        <v>0.08648507462686572</v>
+        <v>0.2409873029772329</v>
       </c>
       <c r="G2105" s="4">
-        <v>65.41679104477612</v>
+        <v>79.27502189141856</v>
       </c>
       <c r="H2105" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2105" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2105" s="2">
-        <v>938</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="2106" spans="1:10">
@@ -68118,30 +68118,158 @@
         <v>2020</v>
       </c>
       <c r="B2106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2106" s="4">
+        <v>1.2248</v>
+      </c>
+      <c r="D2106" s="4">
+        <v>0.1449057971014493</v>
+      </c>
+      <c r="E2106" s="4">
+        <v>1.9365</v>
+      </c>
+      <c r="F2106" s="4">
+        <v>1.091086956521739</v>
+      </c>
+      <c r="G2106" s="4">
+        <v>80.85507246376811</v>
+      </c>
+      <c r="H2106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2106" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:10">
+      <c r="A2107" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2107" s="4">
+        <v>1.4597</v>
+      </c>
+      <c r="D2107" s="4">
+        <v>0.1322378640776699</v>
+      </c>
+      <c r="E2107" s="4">
+        <v>1.304495145631068</v>
+      </c>
+      <c r="F2107" s="4">
+        <v>0.368143203883495</v>
+      </c>
+      <c r="G2107" s="4">
+        <v>73.20667475728156</v>
+      </c>
+      <c r="H2107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2107" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:10">
+      <c r="A2108" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2108" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2108" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="D2108" s="4">
+        <v>0.2126379192334018</v>
+      </c>
+      <c r="E2108" s="4">
+        <v>0.7476721423682409</v>
+      </c>
+      <c r="F2108" s="4">
+        <v>0.103116358658453</v>
+      </c>
+      <c r="G2108" s="4">
+        <v>70.26180698151951</v>
+      </c>
+      <c r="H2108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2108" s="2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:10">
+      <c r="A2109" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2109" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2109" s="4">
+        <v>1.5053</v>
+      </c>
+      <c r="D2109" s="4">
+        <v>0.1903049040511727</v>
+      </c>
+      <c r="E2109" s="4">
+        <v>0.8808816631130064</v>
+      </c>
+      <c r="F2109" s="4">
+        <v>0.08648507462686572</v>
+      </c>
+      <c r="G2109" s="4">
+        <v>65.41679104477612</v>
+      </c>
+      <c r="H2109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2109" s="2">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:10">
+      <c r="A2110" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2110" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C2106" s="4">
+      <c r="C2110" s="4">
         <v>1.19</v>
       </c>
-      <c r="D2106" s="4">
+      <c r="D2110" s="4">
         <v>0.1060197368421053</v>
       </c>
-      <c r="E2106" s="4">
+      <c r="E2110" s="4">
         <v>0.6780756578947368</v>
       </c>
-      <c r="F2106" s="4">
+      <c r="F2110" s="4">
         <v>0.2776052631578947</v>
       </c>
-      <c r="G2106" s="4">
+      <c r="G2110" s="4">
         <v>8198.456085526315</v>
       </c>
-      <c r="H2106" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2106" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2106" s="2">
+      <c r="H2110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2110" s="2">
         <v>608</v>
       </c>
     </row>

--- a/data/data_final/data_master.xlsx
+++ b/data/data_final/data_master.xlsx
@@ -739,8 +739,8 @@
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
@@ -62073,7 +62073,7 @@
         <v>0.4510411868538287</v>
       </c>
       <c r="E1917" s="4">
-        <v>-0.4510411868538287</v>
+        <v>3.770522232495588</v>
       </c>
       <c r="F1917" s="4">
         <v>0.5370064722198873</v>
@@ -62105,7 +62105,7 @@
         <v>0.3779245968327764</v>
       </c>
       <c r="E1918" s="4">
-        <v>-0.3779245968327764</v>
+        <v>3.763623855876798</v>
       </c>
       <c r="F1918" s="4">
         <v>0.5316542205433678</v>
@@ -62137,7 +62137,7 @@
         <v>0.2039500959692898</v>
       </c>
       <c r="E1919" s="4">
-        <v>-0.2039500959692898</v>
+        <v>3.453203454894434</v>
       </c>
       <c r="F1919" s="4">
         <v>0.5619731285988484</v>
@@ -62169,7 +62169,7 @@
         <v>0.2176812953041286</v>
       </c>
       <c r="E1920" s="4">
-        <v>-0.2176812953041286</v>
+        <v>4.233014576110937</v>
       </c>
       <c r="F1920" s="4">
         <v>0.1975512527576427</v>
@@ -62201,7 +62201,7 @@
         <v>0.3302729794933655</v>
       </c>
       <c r="E1921" s="4">
-        <v>-0.3302729794933655</v>
+        <v>3.809664776839566</v>
       </c>
       <c r="F1921" s="4">
         <v>0.6538800965018096</v>
@@ -62233,7 +62233,7 @@
         <v>0.3275606432114958</v>
       </c>
       <c r="E1922" s="4">
-        <v>-0.3275606432114958</v>
+        <v>3.661350459029481</v>
       </c>
       <c r="F1922" s="4">
         <v>0.492698694189428</v>
@@ -62553,7 +62553,7 @@
         <v>0.20220663195396</v>
       </c>
       <c r="E1932" s="4">
-        <v>-0.20220663195396</v>
+        <v>2.529077993970951</v>
       </c>
       <c r="F1932" s="4">
         <v>0.1025391614140861</v>
@@ -62585,7 +62585,7 @@
         <v>0.1798597650887273</v>
       </c>
       <c r="E1933" s="4">
-        <v>-0.1798597650887273</v>
+        <v>2.811554685513805</v>
       </c>
       <c r="F1933" s="4">
         <v>0.2659831697767834</v>
@@ -62617,7 +62617,7 @@
         <v>0.2084158161077279</v>
       </c>
       <c r="E1934" s="4">
-        <v>-0.2084158161077279</v>
+        <v>2.851880950338794</v>
       </c>
       <c r="F1934" s="4">
         <v>0.1541280555793807</v>
